--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82374AF0-0BF1-451B-90B1-F58972AA9857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9720A3-DCF9-4885-A3C4-074C815BEE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -320,15 +320,9 @@
     <t>lyciscas</t>
   </si>
   <si>
-    <t>Aglante, AGLANTE</t>
-  </si>
-  <si>
     <t>Cinthie, CINTHIE</t>
   </si>
   <si>
-    <t>Aristomene, Prince de Messne, ARISTOMENE</t>
-  </si>
-  <si>
     <t>Iphitas, Prince, Le Prince, Roy, Le Prince Iphitas, IPHITAS</t>
   </si>
   <si>
@@ -350,13 +344,19 @@
     <t>Roland, ROLAND</t>
   </si>
   <si>
-    <t>Theocle, Prince de Pyle, THEOCLE</t>
-  </si>
-  <si>
-    <t>Euriale, Prince d'Ithaque, Le Prince, Ieune Prince, Prince, EURIALE</t>
-  </si>
-  <si>
     <t>La Princesse d'Elide, La Princesse, LA PRINCESSE D'ELIDE</t>
+  </si>
+  <si>
+    <t>Theocle, Prince de Pyle, THEOCLE, de Pyle, Princes de Pyle</t>
+  </si>
+  <si>
+    <t>Aristomene, Prince de Messne, ARISTOMENE, Souverains de Messene, de Messne</t>
+  </si>
+  <si>
+    <t>Euriale, Prince d'Ithaque, Le Prince, Ieune Prince, Prince, EURIALE, d'Ithaque, ce Prince</t>
+  </si>
+  <si>
+    <t>Aglante, AGLANTE, la Princesse Aglante</t>
   </si>
 </sst>
 </file>
@@ -710,19 +710,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.77734375" customWidth="1"/>
+    <col min="1" max="1" width="75.33203125" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
@@ -762,7 +760,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -818,7 +816,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -890,7 +888,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -914,7 +912,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -946,7 +944,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
@@ -954,7 +952,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -970,7 +968,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -978,7 +976,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
@@ -1026,7 +1024,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
         <v>69</v>
@@ -1082,7 +1080,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1106,7 +1104,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9720A3-DCF9-4885-A3C4-074C815BEE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B4242-8168-4463-86C3-EC968230E59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
+    <workbookView xWindow="5052" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Forme normalisée" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -113,9 +113,6 @@
     <t>bergers</t>
   </si>
   <si>
-    <t>Roger</t>
-  </si>
-  <si>
     <t>roger</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>roland</t>
   </si>
   <si>
-    <t>Guidon le sauuage</t>
-  </si>
-  <si>
     <t>guidon_le_sauvage</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>Quatre bergers, Bergers</t>
   </si>
   <si>
-    <t>Deux bergères</t>
-  </si>
-  <si>
     <t>deux_bergeres</t>
   </si>
   <si>
@@ -296,12 +287,6 @@
     <t>dirce</t>
   </si>
   <si>
-    <t>Célie, Deux des Nymphes</t>
-  </si>
-  <si>
-    <t>Dircé, Deux des Nymphes</t>
-  </si>
-  <si>
     <t>Alcine, Magicienne</t>
   </si>
   <si>
@@ -323,9 +308,6 @@
     <t>Cinthie, CINTHIE</t>
   </si>
   <si>
-    <t>Iphitas, Prince, Le Prince, Roy, Le Prince Iphitas, IPHITAS</t>
-  </si>
-  <si>
     <t>L'Automne, Les Saisons, Les quatre Saisons, L'AUTOMNE</t>
   </si>
   <si>
@@ -347,9 +329,6 @@
     <t>La Princesse d'Elide, La Princesse, LA PRINCESSE D'ELIDE</t>
   </si>
   <si>
-    <t>Theocle, Prince de Pyle, THEOCLE, de Pyle, Princes de Pyle</t>
-  </si>
-  <si>
     <t>Aristomene, Prince de Messne, ARISTOMENE, Souverains de Messene, de Messne</t>
   </si>
   <si>
@@ -357,6 +336,99 @@
   </si>
   <si>
     <t>Aglante, AGLANTE, la Princesse Aglante</t>
+  </si>
+  <si>
+    <t>Iphitas, Prince, Le Prince, Roy, Le Prince Iphitas, IPHITAS, Roy son pere, Prince vostre pere</t>
+  </si>
+  <si>
+    <t>Theocle, Prince de Pyle, THEOCLE, de Pyle, Princes de Pyle, Theocles</t>
+  </si>
+  <si>
+    <t>Deux Bergeres</t>
+  </si>
+  <si>
+    <t>bergers_sixieme_intermede</t>
+  </si>
+  <si>
+    <t>bergeres_sixieme_intermede</t>
+  </si>
+  <si>
+    <t>Quatre Bergers, Bergers</t>
+  </si>
+  <si>
+    <t>Quatre Bergeres, Bergéres</t>
+  </si>
+  <si>
+    <t>MELISSE</t>
+  </si>
+  <si>
+    <t>melisse</t>
+  </si>
+  <si>
+    <t>Célie, Deux des Nymphes, CELIE</t>
+  </si>
+  <si>
+    <t>Dircé, Deux des Nymphes, DIRCE</t>
+  </si>
+  <si>
+    <t>Quatre Géants, GEANTS</t>
+  </si>
+  <si>
+    <t>geants</t>
+  </si>
+  <si>
+    <t>Quatre Nains, NAINS</t>
+  </si>
+  <si>
+    <t>nains</t>
+  </si>
+  <si>
+    <t>DEMONS AGILES</t>
+  </si>
+  <si>
+    <t>demons_agiles</t>
+  </si>
+  <si>
+    <t>demons_sauteurs</t>
+  </si>
+  <si>
+    <t>AUTRES DEMONS SAUTEURS, D'autres Démons</t>
+  </si>
+  <si>
+    <t>Roger, Chevalier</t>
+  </si>
+  <si>
+    <t>chevaliers</t>
+  </si>
+  <si>
+    <t>ECUYERS</t>
+  </si>
+  <si>
+    <t>Chevaliers, CHEVALIERS</t>
+  </si>
+  <si>
+    <t>ecuyers</t>
+  </si>
+  <si>
+    <t>Guidon le sauuage, Guidon le sauvage, Guidon</t>
+  </si>
+  <si>
+    <t>MORES, Huit Mores</t>
+  </si>
+  <si>
+    <t>mores</t>
+  </si>
+  <si>
+    <t>six_chevaliers</t>
+  </si>
+  <si>
+    <t>Six Chevaliers, six des Chevaliers</t>
+  </si>
+  <si>
+    <t>MONSTRES, monstres</t>
+  </si>
+  <si>
+    <t>monstres</t>
   </si>
 </sst>
 </file>
@@ -708,9 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -720,58 +794,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,26 +874,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,178 +914,178 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
         <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,10 +1098,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,42 +1122,42 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
         <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
         <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,10 +1178,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,10 +1202,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,10 +1218,106 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
         <v>44</v>
       </c>
-      <c r="B54" t="s">
-        <v>45</v>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B4242-8168-4463-86C3-EC968230E59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC9A49-BC73-4901-8C1F-8BAF37CD14DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Forme normalisée" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -794,535 +794,535 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B54">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B66">
+    <sortCondition ref="B66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC9A49-BC73-4901-8C1F-8BAF37CD14DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870676C-B953-47B6-B33A-1ADE417545D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -176,12 +176,6 @@
     <t>guidon_le_sauvage</t>
   </si>
   <si>
-    <t>Oger le danois, Ce Paladin</t>
-  </si>
-  <si>
-    <t>Aquilant, AQVILANT LE NOIR</t>
-  </si>
-  <si>
     <t>Renaud, RENAVD</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>la Propreté</t>
   </si>
   <si>
-    <t>la Ioye</t>
-  </si>
-  <si>
     <t>l'Abondance</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t>Quatre Bergeres, Bergéres</t>
   </si>
   <si>
-    <t>MELISSE</t>
-  </si>
-  <si>
     <t>melisse</t>
   </si>
   <si>
@@ -429,6 +417,30 @@
   </si>
   <si>
     <t>monstres</t>
+  </si>
+  <si>
+    <t>MELISSE, Melisse</t>
+  </si>
+  <si>
+    <t>Oger le danois, Ce Paladin, Ogier le danois</t>
+  </si>
+  <si>
+    <t>Aquilant, AQVILANT LE NOIR, Aquilant le Noir</t>
+  </si>
+  <si>
+    <t>le Temps</t>
+  </si>
+  <si>
+    <t>le_temps</t>
+  </si>
+  <si>
+    <t>la Ioye, la Joye</t>
+  </si>
+  <si>
+    <t>valets_de_chien</t>
+  </si>
+  <si>
+    <t>quatre Valets de Chien, Tous ensemble, Valets de chien, six Valets de Chien</t>
   </si>
 </sst>
 </file>
@@ -780,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,31 +806,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -826,15 +838,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -842,10 +854,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,10 +894,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,18 +910,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -922,26 +934,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,34 +974,34 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,26 +1014,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1034,7 +1046,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -1042,98 +1054,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,55 +1158,55 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>64</v>
@@ -1202,127 +1214,143 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>43</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B66">
-    <sortCondition ref="B66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B68">
+    <sortCondition ref="B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870676C-B953-47B6-B33A-1ADE417545D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A5CE3-4977-4991-AC66-B67F9C6DD4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -371,9 +371,6 @@
     <t>nains</t>
   </si>
   <si>
-    <t>DEMONS AGILES</t>
-  </si>
-  <si>
     <t>demons_agiles</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Guidon le sauuage, Guidon le sauvage, Guidon</t>
   </si>
   <si>
-    <t>MORES, Huit Mores</t>
-  </si>
-  <si>
     <t>mores</t>
   </si>
   <si>
@@ -441,6 +435,12 @@
   </si>
   <si>
     <t>quatre Valets de Chien, Tous ensemble, Valets de chien, six Valets de Chien</t>
+  </si>
+  <si>
+    <t>MORES, Huit Mores, HVIct Maures, Maures</t>
+  </si>
+  <si>
+    <t>DEMONS AGILES, Demons Agiles</t>
   </si>
 </sst>
 </file>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +830,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,18 +974,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
         <v>112</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,10 +1014,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
         <v>105</v>
@@ -1150,18 +1150,18 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,10 +1334,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A5CE3-4977-4991-AC66-B67F9C6DD4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658C9C3-2295-4D1A-AA4B-B3C1F6281A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Alcine, Magicienne</t>
   </si>
   <si>
-    <t>LE SIECLE D’AIRAIN</t>
-  </si>
-  <si>
     <t>l_aurore</t>
   </si>
   <si>
@@ -441,6 +438,81 @@
   </si>
   <si>
     <t>DEMONS AGILES, Demons Agiles</t>
+  </si>
+  <si>
+    <t>heraut_d_armes</t>
+  </si>
+  <si>
+    <t>Un Héraut d'Armes, Héraut d'Armes</t>
+  </si>
+  <si>
+    <t>le_siecle_d_or</t>
+  </si>
+  <si>
+    <t>le_siecle_d_argent</t>
+  </si>
+  <si>
+    <t>le_siecle_de_fer</t>
+  </si>
+  <si>
+    <t>Siecle d'or, les quatre Siecles</t>
+  </si>
+  <si>
+    <t>Siecle de fer, les quatre Siecles</t>
+  </si>
+  <si>
+    <t>Siecle d'argent, les quatre Siecles</t>
+  </si>
+  <si>
+    <t>Siecle d'Airain, LE SIECLE D’AIRAIN,  les quatre Siecles</t>
+  </si>
+  <si>
+    <t>Apollon, APOLLON</t>
+  </si>
+  <si>
+    <t>apollon</t>
+  </si>
+  <si>
+    <t>Pan, PAN</t>
+  </si>
+  <si>
+    <t>Diane, DIANE</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>diane</t>
+  </si>
+  <si>
+    <t>Deux Ours</t>
+  </si>
+  <si>
+    <t>ours</t>
+  </si>
+  <si>
+    <t>Huict paysans</t>
+  </si>
+  <si>
+    <t>paysans</t>
+  </si>
+  <si>
+    <t>Satyre</t>
+  </si>
+  <si>
+    <t>satyre</t>
+  </si>
+  <si>
+    <t>Deux Pastres</t>
+  </si>
+  <si>
+    <t>pastres</t>
+  </si>
+  <si>
+    <t>Deux bergers</t>
+  </si>
+  <si>
+    <t>deux_bergers</t>
   </si>
 </sst>
 </file>
@@ -792,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +886,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -830,7 +902,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -854,7 +926,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -894,10 +966,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,10 +982,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +1006,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>79</v>
@@ -942,15 +1014,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -974,23 +1046,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -998,7 +1070,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
@@ -1014,15 +1086,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>66</v>
@@ -1030,10 +1102,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
         <v>108</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1118,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -1054,7 +1126,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -1062,7 +1134,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -1070,15 +1142,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -1086,7 +1158,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -1094,7 +1166,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1102,7 +1174,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -1110,7 +1182,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -1118,10 +1190,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
         <v>129</v>
-      </c>
-      <c r="B40" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,34 +1206,34 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
         <v>124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,15 +1246,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -1206,7 +1278,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
         <v>64</v>
@@ -1214,7 +1286,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
@@ -1262,7 +1334,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -1270,7 +1342,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
@@ -1278,10 +1350,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,7 +1374,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -1334,10 +1406,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1346,6 +1418,102 @@
       </c>
       <c r="B68" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658C9C3-2295-4D1A-AA4B-B3C1F6281A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456A0D3-822C-4E56-A33C-B23E24090314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -236,9 +236,6 @@
     <t>euriale</t>
   </si>
   <si>
-    <t>Arbate</t>
-  </si>
-  <si>
     <t>arbate</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>MORES, Huit Mores, HVIct Maures, Maures</t>
   </si>
   <si>
-    <t>DEMONS AGILES, Demons Agiles</t>
-  </si>
-  <si>
     <t>heraut_d_armes</t>
   </si>
   <si>
@@ -513,6 +507,21 @@
   </si>
   <si>
     <t>deux_bergers</t>
+  </si>
+  <si>
+    <t>Arbate, Arbale Gouuerneur du Prince d’Ithaque</t>
+  </si>
+  <si>
+    <t>DEMONS AGILES, Demons Agiles, Demons agilles</t>
+  </si>
+  <si>
+    <t>page_du_roi</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>page</t>
   </si>
 </sst>
 </file>
@@ -864,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +895,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -894,631 +903,647 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B68">
-    <sortCondition ref="B69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B82">
+    <sortCondition ref="B82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456A0D3-822C-4E56-A33C-B23E24090314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE76BE-A8C2-4F91-AE4C-7021E460489C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -522,6 +522,12 @@
   </si>
   <si>
     <t>page</t>
+  </si>
+  <si>
+    <t>Les douzes heures</t>
+  </si>
+  <si>
+    <t>douze_heures</t>
   </si>
 </sst>
 </file>
@@ -873,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,6 +1547,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B82">
     <sortCondition ref="B82"/>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE76BE-A8C2-4F91-AE4C-7021E460489C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F22FE8-2365-460B-AA31-45B22FD511C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -518,16 +518,55 @@
     <t>page_du_roi</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>page</t>
   </si>
   <si>
-    <t>Les douzes heures</t>
-  </si>
-  <si>
     <t>douze_heures</t>
+  </si>
+  <si>
+    <t>douze_zodiaque</t>
+  </si>
+  <si>
+    <t>Les douze Signes du Zodiaque, des douze Signes du Zodiaque</t>
+  </si>
+  <si>
+    <t>Les douzes heures, des douze heures du jour</t>
+  </si>
+  <si>
+    <t>Page, Vnze Pages, Les Pages des Cheualiers</t>
+  </si>
+  <si>
+    <t>Page, Les Pages des Cheualiers</t>
+  </si>
+  <si>
+    <t>Vingt Pasteur</t>
+  </si>
+  <si>
+    <t>pasteur</t>
+  </si>
+  <si>
+    <t>Officiers du gobelet</t>
+  </si>
+  <si>
+    <t>officiers_gobelet</t>
+  </si>
+  <si>
+    <t>Grands Valets de pied</t>
+  </si>
+  <si>
+    <t>grands_valets_de_pied</t>
+  </si>
+  <si>
+    <t>Petits Valets de pied</t>
+  </si>
+  <si>
+    <t>petits_valets_de_pied</t>
+  </si>
+  <si>
+    <t>quatre petits Garçons, Petits Garçons</t>
+  </si>
+  <si>
+    <t>petits_garcons</t>
   </si>
 </sst>
 </file>
@@ -879,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,447 +1156,495 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B82">
-    <sortCondition ref="B82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B89">
+    <sortCondition ref="B89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F22FE8-2365-460B-AA31-45B22FD511C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416A32D-21B2-4542-B09B-1CEFB2CD108E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>petits_garcons</t>
+  </si>
+  <si>
+    <t>Officiers de la bouche</t>
+  </si>
+  <si>
+    <t>officiers_bouche</t>
   </si>
 </sst>
 </file>
@@ -918,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,6 +1648,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B89">
     <sortCondition ref="B89"/>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416A32D-21B2-4542-B09B-1CEFB2CD108E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857995C7-CEFE-47E2-BE6B-5C42E3437E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -383,9 +383,6 @@
     <t>ECUYERS</t>
   </si>
   <si>
-    <t>Chevaliers, CHEVALIERS</t>
-  </si>
-  <si>
     <t>ecuyers</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>officiers_bouche</t>
+  </si>
+  <si>
+    <t>Chevaliers, CHEVALIERS, Cheualiers</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,15 +962,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
         <v>114</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
@@ -1138,18 +1138,18 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
         <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,18 +1162,18 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,10 +1210,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -1306,34 +1306,34 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
         <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
@@ -1362,18 +1362,18 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
         <v>122</v>
-      </c>
-      <c r="B54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1394,47 +1394,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
         <v>160</v>
@@ -1442,223 +1442,223 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B89">
-    <sortCondition ref="B89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B90">
+    <sortCondition ref="B90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/name_key_corresp.xlsx
+++ b/index/name_key_corresp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857995C7-CEFE-47E2-BE6B-5C42E3437E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA51FC19-A0EA-4C25-83AC-39FB1FA5DF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
